--- a/Docs/SampleExcel/Excel2.xlsx
+++ b/Docs/SampleExcel/Excel2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MapSheet" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t xml:space="preserve">C7</t>
   </si>
@@ -123,6 +123,45 @@
     <t xml:space="preserve">鼠标</t>
   </si>
   <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium Laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">프리미엄 노트북</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プレミアムノートPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium-Laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ноутбук премиум</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUB</t>
+  </si>
+  <si>
     <t xml:space="preserve">번호</t>
   </si>
   <si>
@@ -135,12 +174,21 @@
     <t xml:space="preserve">담임</t>
   </si>
   <si>
+    <t xml:space="preserve">비고</t>
+  </si>
+  <si>
+    <t xml:space="preserve">등록일</t>
+  </si>
+  <si>
     <t xml:space="preserve">김민수</t>
   </si>
   <si>
     <t xml:space="preserve">박선생</t>
   </si>
   <si>
+    <t xml:space="preserve">우등생</t>
+  </si>
+  <si>
     <t xml:space="preserve">이영희</t>
   </si>
   <si>
@@ -153,31 +201,22 @@
     <t xml:space="preserve">山田先生</t>
   </si>
   <si>
+    <t xml:space="preserve">留学生</t>
+  </si>
+  <si>
     <t xml:space="preserve">John Smith</t>
   </si>
   <si>
     <t xml:space="preserve">Mr. Brown</t>
   </si>
   <si>
+    <t xml:space="preserve">Exchange Student</t>
+  </si>
+  <si>
     <t xml:space="preserve">박지영</t>
   </si>
   <si>
     <t xml:space="preserve">이선생</t>
-  </si>
-  <si>
-    <t xml:space="preserve">비고</t>
-  </si>
-  <si>
-    <t xml:space="preserve">등록일</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우등생</t>
-  </si>
-  <si>
-    <t xml:space="preserve">留学生</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exchange Student</t>
   </si>
   <si>
     <t xml:space="preserve">장학생</t>
@@ -468,7 +507,7 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -736,14 +775,15 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="11.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.37"/>
@@ -756,16 +796,16 @@
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,13 +813,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>1299.99</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,13 +827,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,13 +855,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>1199.99</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,13 +869,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>120000</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -893,22 +933,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,16 +956,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H8" s="3" t="n">
         <v>45352</v>
@@ -936,13 +976,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H9" s="3" t="n">
         <v>45353</v>
@@ -953,16 +993,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3" t="n">
         <v>45354</v>
@@ -973,16 +1013,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H11" s="3" t="n">
         <v>45355</v>
@@ -993,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H12" s="3" t="n">
         <v>45356</v>
